--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1860.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1953345874669421</v>
+        <v>1.502379536628723</v>
       </c>
       <c r="B1">
-        <v>0.2978799758380183</v>
+        <v>2.776848793029785</v>
       </c>
       <c r="C1">
-        <v>0.652682240608751</v>
+        <v>3.043171644210815</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.066450595855713</v>
       </c>
       <c r="E1">
-        <v>2.798851565380062</v>
+        <v>2.397652626037598</v>
       </c>
     </row>
   </sheetData>
